--- a/analysis/metadata/P04_1/P04_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P04_1/P04_1_minimal_metadata.xlsx
@@ -467,7 +467,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-08-24</t>
+          <t>24/08/2020 08:37</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -529,7 +529,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-08-24</t>
+          <t>24/08/2020 08:37</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -591,7 +591,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-08-24</t>
+          <t>24/08/2020 08:37</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>11/05/2020 14:01</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>11/05/2020 14:01</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -777,7 +777,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>11/05/2020 14:01</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>11/05/2020 14:01</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>11/05/2020 14:01</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>11/05/2020 14:01</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>11/05/2020 14:01</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>11/05/2020 14:01</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>11/05/2020 14:01</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>11/05/2020 14:01</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>11/05/2020 14:01</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>11/05/2020 14:01</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>11/05/2020 14:01</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>11/05/2020 14:01</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">

--- a/analysis/metadata/P04_1/P04_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P04_1/P04_1_minimal_metadata.xlsx
@@ -467,7 +467,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>24/08/2020 08:37</t>
+          <t>2020-08-24</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -529,7 +529,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>24/08/2020 08:37</t>
+          <t>2020-08-24</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -591,7 +591,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>24/08/2020 08:37</t>
+          <t>2020-08-24</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>11/05/2020 14:01</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>11/05/2020 14:01</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -777,7 +777,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>11/05/2020 14:01</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>11/05/2020 14:01</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>11/05/2020 14:01</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>11/05/2020 14:01</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>11/05/2020 14:01</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>11/05/2020 14:01</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>11/05/2020 14:01</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>11/05/2020 14:01</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>11/05/2020 14:01</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>11/05/2020 14:01</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>11/05/2020 14:01</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>11/05/2020 14:01</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
